--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H2">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I2">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J2">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.12504741483998</v>
+        <v>0.01220466666666667</v>
       </c>
       <c r="N2">
-        <v>1.12504741483998</v>
+        <v>0.036614</v>
       </c>
       <c r="O2">
-        <v>0.0475699014968439</v>
+        <v>0.0005045322537201124</v>
       </c>
       <c r="P2">
-        <v>0.0475699014968439</v>
+        <v>0.0005045322537201123</v>
       </c>
       <c r="Q2">
-        <v>57.49149951821513</v>
+        <v>0.6254482281464445</v>
       </c>
       <c r="R2">
-        <v>57.49149951821513</v>
+        <v>5.629034053318</v>
       </c>
       <c r="S2">
-        <v>0.007293432676244765</v>
+        <v>7.662539265082358E-05</v>
       </c>
       <c r="T2">
-        <v>0.007293432676244765</v>
+        <v>7.662539265082356E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H3">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I3">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J3">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.9108295324475</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N3">
-        <v>11.9108295324475</v>
+        <v>3.500078</v>
       </c>
       <c r="O3">
-        <v>0.5036205409038838</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="P3">
-        <v>0.5036205409038838</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="Q3">
-        <v>608.660080716372</v>
+        <v>59.78908569056512</v>
       </c>
       <c r="R3">
-        <v>608.660080716372</v>
+        <v>538.101771215086</v>
       </c>
       <c r="S3">
-        <v>0.07721526414554691</v>
+        <v>0.007324926286625588</v>
       </c>
       <c r="T3">
-        <v>0.07721526414554691</v>
+        <v>0.007324926286625588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H4">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I4">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J4">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6145276034687</v>
+        <v>12.123225</v>
       </c>
       <c r="N4">
-        <v>10.6145276034687</v>
+        <v>36.369675</v>
       </c>
       <c r="O4">
-        <v>0.4488095575992724</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="P4">
-        <v>0.4488095575992724</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="Q4">
-        <v>542.4172355328682</v>
+        <v>621.274615912275</v>
       </c>
       <c r="R4">
-        <v>542.4172355328682</v>
+        <v>5591.471543210475</v>
       </c>
       <c r="S4">
-        <v>0.0688116264655849</v>
+        <v>0.07611407187026387</v>
       </c>
       <c r="T4">
-        <v>0.0688116264655849</v>
+        <v>0.07611407187026387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>135.345528577915</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H5">
-        <v>135.345528577915</v>
+        <v>153.739937</v>
       </c>
       <c r="I5">
-        <v>0.4060792783825092</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J5">
-        <v>0.4060792783825092</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.12504741483998</v>
+        <v>10.84520966666667</v>
       </c>
       <c r="N5">
-        <v>1.12504741483998</v>
+        <v>32.535629</v>
       </c>
       <c r="O5">
-        <v>0.0475699014968439</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="P5">
-        <v>0.0475699014968439</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="Q5">
-        <v>152.2701370367339</v>
+        <v>555.7806169683748</v>
       </c>
       <c r="R5">
-        <v>152.2701370367339</v>
+        <v>5002.025552715373</v>
       </c>
       <c r="S5">
-        <v>0.01931715127256541</v>
+        <v>0.06809022087907692</v>
       </c>
       <c r="T5">
-        <v>0.01931715127256541</v>
+        <v>0.0680902208790769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.345528577915</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H6">
-        <v>135.345528577915</v>
+        <v>153.739937</v>
       </c>
       <c r="I6">
-        <v>0.4060792783825092</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J6">
-        <v>0.4060792783825092</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.9108295324475</v>
+        <v>0.04273033333333334</v>
       </c>
       <c r="N6">
-        <v>11.9108295324475</v>
+        <v>0.128191</v>
       </c>
       <c r="O6">
-        <v>0.5036205409038838</v>
+        <v>0.001766441638079285</v>
       </c>
       <c r="P6">
-        <v>0.5036205409038838</v>
+        <v>0.001766441638079284</v>
       </c>
       <c r="Q6">
-        <v>1612.077518870547</v>
+        <v>2.189786251551889</v>
       </c>
       <c r="R6">
-        <v>1612.077518870547</v>
+        <v>19.708076263967</v>
       </c>
       <c r="S6">
-        <v>0.2045098658288581</v>
+        <v>0.0002682767714344711</v>
       </c>
       <c r="T6">
-        <v>0.2045098658288581</v>
+        <v>0.0002682767714344711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H7">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I7">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J7">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>10.6145276034687</v>
+        <v>0.01220466666666667</v>
       </c>
       <c r="N7">
-        <v>10.6145276034687</v>
+        <v>0.036614</v>
       </c>
       <c r="O7">
-        <v>0.4488095575992724</v>
+        <v>0.0005045322537201124</v>
       </c>
       <c r="P7">
-        <v>0.4488095575992724</v>
+        <v>0.0005045322537201123</v>
       </c>
       <c r="Q7">
-        <v>1436.62884909634</v>
+        <v>1.656744298610667</v>
       </c>
       <c r="R7">
-        <v>1436.62884909634</v>
+        <v>14.910698687496</v>
       </c>
       <c r="S7">
-        <v>0.1822522612810857</v>
+        <v>0.0002029723271888964</v>
       </c>
       <c r="T7">
-        <v>0.1822522612810857</v>
+        <v>0.0002029723271888963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.45780735488511</v>
+        <v>135.746788</v>
       </c>
       <c r="H8">
-        <v>67.45780735488511</v>
+        <v>407.240364</v>
       </c>
       <c r="I8">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J8">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.12504741483998</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N8">
-        <v>1.12504741483998</v>
+        <v>3.500078</v>
       </c>
       <c r="O8">
-        <v>0.0475699014968439</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="P8">
-        <v>0.0475699014968439</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="Q8">
-        <v>75.89323177538688</v>
+        <v>158.3747820831547</v>
       </c>
       <c r="R8">
-        <v>75.89323177538688</v>
+        <v>1425.373038748392</v>
       </c>
       <c r="S8">
-        <v>0.009627895970273847</v>
+        <v>0.01940293267609816</v>
       </c>
       <c r="T8">
-        <v>0.009627895970273847</v>
+        <v>0.01940293267609816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.45780735488511</v>
+        <v>135.746788</v>
       </c>
       <c r="H9">
-        <v>67.45780735488511</v>
+        <v>407.240364</v>
       </c>
       <c r="I9">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J9">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.9108295324475</v>
+        <v>12.123225</v>
       </c>
       <c r="N9">
-        <v>11.9108295324475</v>
+        <v>36.369675</v>
       </c>
       <c r="O9">
-        <v>0.5036205409038838</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="P9">
-        <v>0.5036205409038838</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="Q9">
-        <v>803.4784440367198</v>
+        <v>1645.6888539513</v>
       </c>
       <c r="R9">
-        <v>803.4784440367198</v>
+        <v>14811.1996855617</v>
       </c>
       <c r="S9">
-        <v>0.1019301285842969</v>
+        <v>0.2016178940802377</v>
       </c>
       <c r="T9">
-        <v>0.1019301285842969</v>
+        <v>0.2016178940802377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.45780735488511</v>
+        <v>135.746788</v>
       </c>
       <c r="H10">
-        <v>67.45780735488511</v>
+        <v>407.240364</v>
       </c>
       <c r="I10">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J10">
-        <v>0.202394700584205</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6145276034687</v>
+        <v>10.84520966666667</v>
       </c>
       <c r="N10">
-        <v>10.6145276034687</v>
+        <v>32.535629</v>
       </c>
       <c r="O10">
-        <v>0.4488095575992724</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="P10">
-        <v>0.4488095575992724</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="Q10">
-        <v>716.0327582379018</v>
+        <v>1472.202377436551</v>
       </c>
       <c r="R10">
-        <v>716.0327582379018</v>
+        <v>13249.82139692896</v>
       </c>
       <c r="S10">
-        <v>0.09083667602963426</v>
+        <v>0.1803635859148016</v>
       </c>
       <c r="T10">
-        <v>0.09083667602963426</v>
+        <v>0.1803635859148016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.7271789344303</v>
+        <v>135.746788</v>
       </c>
       <c r="H11">
-        <v>52.7271789344303</v>
+        <v>407.240364</v>
       </c>
       <c r="I11">
-        <v>0.1581981687744703</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J11">
-        <v>0.1581981687744703</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.12504741483998</v>
+        <v>0.04273033333333334</v>
       </c>
       <c r="N11">
-        <v>1.12504741483998</v>
+        <v>0.128191</v>
       </c>
       <c r="O11">
-        <v>0.0475699014968439</v>
+        <v>0.001766441638079285</v>
       </c>
       <c r="P11">
-        <v>0.0475699014968439</v>
+        <v>0.001766441638079284</v>
       </c>
       <c r="Q11">
-        <v>59.32057635198586</v>
+        <v>5.800505500169334</v>
       </c>
       <c r="R11">
-        <v>59.32057635198586</v>
+        <v>52.204549501524</v>
       </c>
       <c r="S11">
-        <v>0.007525471305582641</v>
+        <v>0.0007106359751644677</v>
       </c>
       <c r="T11">
-        <v>0.007525471305582641</v>
+        <v>0.0007106359751644674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.7271789344303</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H12">
-        <v>52.7271789344303</v>
+        <v>203.189987</v>
       </c>
       <c r="I12">
-        <v>0.1581981687744703</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J12">
-        <v>0.1581981687744703</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>11.9108295324475</v>
+        <v>0.01220466666666667</v>
       </c>
       <c r="N12">
-        <v>11.9108295324475</v>
+        <v>0.036614</v>
       </c>
       <c r="O12">
-        <v>0.5036205409038838</v>
+        <v>0.0005045322537201124</v>
       </c>
       <c r="P12">
-        <v>0.5036205409038838</v>
+        <v>0.0005045322537201123</v>
       </c>
       <c r="Q12">
-        <v>628.0244400148562</v>
+        <v>0.8266220204464445</v>
       </c>
       <c r="R12">
-        <v>628.0244400148562</v>
+        <v>7.439598184018</v>
       </c>
       <c r="S12">
-        <v>0.07967184732820265</v>
+        <v>0.0001012717504664435</v>
       </c>
       <c r="T12">
-        <v>0.07967184732820265</v>
+        <v>0.0001012717504664434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.7271789344303</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H13">
-        <v>52.7271789344303</v>
+        <v>203.189987</v>
       </c>
       <c r="I13">
-        <v>0.1581981687744703</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J13">
-        <v>0.1581981687744703</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.6145276034687</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N13">
-        <v>10.6145276034687</v>
+        <v>3.500078</v>
       </c>
       <c r="O13">
-        <v>0.4488095575992724</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="P13">
-        <v>0.4488095575992724</v>
+        <v>0.0482302463958099</v>
       </c>
       <c r="Q13">
-        <v>559.6740962525438</v>
+        <v>79.02008925766512</v>
       </c>
       <c r="R13">
-        <v>559.6740962525438</v>
+        <v>711.180803318986</v>
       </c>
       <c r="S13">
-        <v>0.07100085014068508</v>
+        <v>0.009680969733683523</v>
       </c>
       <c r="T13">
-        <v>0.07100085014068508</v>
+        <v>0.009680969733683521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.6663724925459</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H14">
-        <v>26.6663724925459</v>
+        <v>203.189987</v>
       </c>
       <c r="I14">
-        <v>0.0800075289714388</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J14">
-        <v>0.0800075289714388</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.12504741483998</v>
+        <v>12.123225</v>
       </c>
       <c r="N14">
-        <v>1.12504741483998</v>
+        <v>36.369675</v>
       </c>
       <c r="O14">
-        <v>0.0475699014968439</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="P14">
-        <v>0.0475699014968439</v>
+        <v>0.5011655130501455</v>
       </c>
       <c r="Q14">
-        <v>30.00093343589872</v>
+        <v>821.105976716025</v>
       </c>
       <c r="R14">
-        <v>30.00093343589872</v>
+        <v>7389.953790444225</v>
       </c>
       <c r="S14">
-        <v>0.003805950272177228</v>
+        <v>0.1005959646896173</v>
       </c>
       <c r="T14">
-        <v>0.003805950272177228</v>
+        <v>0.1005959646896172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.6663724925459</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H15">
-        <v>26.6663724925459</v>
+        <v>203.189987</v>
       </c>
       <c r="I15">
-        <v>0.0800075289714388</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J15">
-        <v>0.0800075289714388</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.9108295324475</v>
+        <v>10.84520966666667</v>
       </c>
       <c r="N15">
-        <v>11.9108295324475</v>
+        <v>32.535629</v>
       </c>
       <c r="O15">
-        <v>0.5036205409038838</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="P15">
-        <v>0.5036205409038838</v>
+        <v>0.4483332666622452</v>
       </c>
       <c r="Q15">
-        <v>317.6186170074614</v>
+        <v>734.5460037274248</v>
       </c>
       <c r="R15">
-        <v>317.6186170074614</v>
+        <v>6610.914033546823</v>
       </c>
       <c r="S15">
-        <v>0.04029343501697916</v>
+        <v>0.08999126294195611</v>
       </c>
       <c r="T15">
-        <v>0.04029343501697916</v>
+        <v>0.08999126294195608</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>67.72999566666667</v>
+      </c>
+      <c r="H16">
+        <v>203.189987</v>
+      </c>
+      <c r="I16">
+        <v>0.2007240364114038</v>
+      </c>
+      <c r="J16">
+        <v>0.2007240364114038</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04273033333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.128191</v>
+      </c>
+      <c r="O16">
+        <v>0.001766441638079285</v>
+      </c>
+      <c r="P16">
+        <v>0.001766441638079284</v>
+      </c>
+      <c r="Q16">
+        <v>2.894125291501889</v>
+      </c>
+      <c r="R16">
+        <v>26.047127623517</v>
+      </c>
+      <c r="S16">
+        <v>0.0003545672956804461</v>
+      </c>
+      <c r="T16">
+        <v>0.000354567295680446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>26.6663724925459</v>
-      </c>
-      <c r="H16">
-        <v>26.6663724925459</v>
-      </c>
-      <c r="I16">
-        <v>0.0800075289714388</v>
-      </c>
-      <c r="J16">
-        <v>0.0800075289714388</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.6145276034687</v>
-      </c>
-      <c r="N16">
-        <v>10.6145276034687</v>
-      </c>
-      <c r="O16">
-        <v>0.4488095575992724</v>
-      </c>
-      <c r="P16">
-        <v>0.4488095575992724</v>
-      </c>
-      <c r="Q16">
-        <v>283.0509469065069</v>
-      </c>
-      <c r="R16">
-        <v>283.0509469065069</v>
-      </c>
-      <c r="S16">
-        <v>0.03590814368228242</v>
-      </c>
-      <c r="T16">
-        <v>0.03590814368228242</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>53.62208933333334</v>
+      </c>
+      <c r="H17">
+        <v>160.866268</v>
+      </c>
+      <c r="I17">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="J17">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01220466666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.036614</v>
+      </c>
+      <c r="O17">
+        <v>0.0005045322537201124</v>
+      </c>
+      <c r="P17">
+        <v>0.0005045322537201123</v>
+      </c>
+      <c r="Q17">
+        <v>0.6544397262835557</v>
+      </c>
+      <c r="R17">
+        <v>5.889957536552001</v>
+      </c>
+      <c r="S17">
+        <v>8.01772212887834E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.017722128878337E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>53.62208933333334</v>
+      </c>
+      <c r="H18">
+        <v>160.866268</v>
+      </c>
+      <c r="I18">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="J18">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.166692666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.500078</v>
+      </c>
+      <c r="O18">
+        <v>0.0482302463958099</v>
+      </c>
+      <c r="P18">
+        <v>0.0482302463958099</v>
+      </c>
+      <c r="Q18">
+        <v>62.56049839654491</v>
+      </c>
+      <c r="R18">
+        <v>563.0444855689041</v>
+      </c>
+      <c r="S18">
+        <v>0.007664459723985426</v>
+      </c>
+      <c r="T18">
+        <v>0.007664459723985425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>53.62208933333334</v>
+      </c>
+      <c r="H19">
+        <v>160.866268</v>
+      </c>
+      <c r="I19">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="J19">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.123225</v>
+      </c>
+      <c r="N19">
+        <v>36.369675</v>
+      </c>
+      <c r="O19">
+        <v>0.5011655130501455</v>
+      </c>
+      <c r="P19">
+        <v>0.5011655130501455</v>
+      </c>
+      <c r="Q19">
+        <v>650.0726539581001</v>
+      </c>
+      <c r="R19">
+        <v>5850.653885622901</v>
+      </c>
+      <c r="S19">
+        <v>0.07964219917725822</v>
+      </c>
+      <c r="T19">
+        <v>0.0796421991772582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>53.62208933333334</v>
+      </c>
+      <c r="H20">
+        <v>160.866268</v>
+      </c>
+      <c r="I20">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="J20">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.84520966666667</v>
+      </c>
+      <c r="N20">
+        <v>32.535629</v>
+      </c>
+      <c r="O20">
+        <v>0.4483332666622452</v>
+      </c>
+      <c r="P20">
+        <v>0.4483332666622452</v>
+      </c>
+      <c r="Q20">
+        <v>581.5428015847303</v>
+      </c>
+      <c r="R20">
+        <v>5233.885214262573</v>
+      </c>
+      <c r="S20">
+        <v>0.07124641738413608</v>
+      </c>
+      <c r="T20">
+        <v>0.07124641738413605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>53.62208933333334</v>
+      </c>
+      <c r="H21">
+        <v>160.866268</v>
+      </c>
+      <c r="I21">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="J21">
+        <v>0.1589139657526463</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04273033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.128191</v>
+      </c>
+      <c r="O21">
+        <v>0.001766441638079285</v>
+      </c>
+      <c r="P21">
+        <v>0.001766441638079284</v>
+      </c>
+      <c r="Q21">
+        <v>2.291289751243112</v>
+      </c>
+      <c r="R21">
+        <v>20.621607761188</v>
+      </c>
+      <c r="S21">
+        <v>0.0002807122459777799</v>
+      </c>
+      <c r="T21">
+        <v>0.0002807122459777798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>29.08290733333333</v>
+      </c>
+      <c r="H22">
+        <v>87.248722</v>
+      </c>
+      <c r="I22">
+        <v>0.08618985566240746</v>
+      </c>
+      <c r="J22">
+        <v>0.08618985566240744</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01220466666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.036614</v>
+      </c>
+      <c r="O22">
+        <v>0.0005045322537201124</v>
+      </c>
+      <c r="P22">
+        <v>0.0005045322537201123</v>
+      </c>
+      <c r="Q22">
+        <v>0.354947189700889</v>
+      </c>
+      <c r="R22">
+        <v>3.194524707308</v>
+      </c>
+      <c r="S22">
+        <v>4.348556212516563E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.348556212516561E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29.08290733333333</v>
+      </c>
+      <c r="H23">
+        <v>87.248722</v>
+      </c>
+      <c r="I23">
+        <v>0.08618985566240746</v>
+      </c>
+      <c r="J23">
+        <v>0.08618985566240744</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.166692666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.500078</v>
+      </c>
+      <c r="O23">
+        <v>0.0482302463958099</v>
+      </c>
+      <c r="P23">
+        <v>0.0482302463958099</v>
+      </c>
+      <c r="Q23">
+        <v>33.93081471114623</v>
+      </c>
+      <c r="R23">
+        <v>305.377332400316</v>
+      </c>
+      <c r="S23">
+        <v>0.004156957975417202</v>
+      </c>
+      <c r="T23">
+        <v>0.004156957975417202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>29.08290733333333</v>
+      </c>
+      <c r="H24">
+        <v>87.248722</v>
+      </c>
+      <c r="I24">
+        <v>0.08618985566240746</v>
+      </c>
+      <c r="J24">
+        <v>0.08618985566240744</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12.123225</v>
+      </c>
+      <c r="N24">
+        <v>36.369675</v>
+      </c>
+      <c r="O24">
+        <v>0.5011655130501455</v>
+      </c>
+      <c r="P24">
+        <v>0.5011655130501455</v>
+      </c>
+      <c r="Q24">
+        <v>352.57862925615</v>
+      </c>
+      <c r="R24">
+        <v>3173.20766330535</v>
+      </c>
+      <c r="S24">
+        <v>0.04319538323276842</v>
+      </c>
+      <c r="T24">
+        <v>0.04319538323276841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29.08290733333333</v>
+      </c>
+      <c r="H25">
+        <v>87.248722</v>
+      </c>
+      <c r="I25">
+        <v>0.08618985566240746</v>
+      </c>
+      <c r="J25">
+        <v>0.08618985566240744</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.84520966666667</v>
+      </c>
+      <c r="N25">
+        <v>32.535629</v>
+      </c>
+      <c r="O25">
+        <v>0.4483332666622452</v>
+      </c>
+      <c r="P25">
+        <v>0.4483332666622452</v>
+      </c>
+      <c r="Q25">
+        <v>315.4102277462376</v>
+      </c>
+      <c r="R25">
+        <v>2838.692049716138</v>
+      </c>
+      <c r="S25">
+        <v>0.03864177954227455</v>
+      </c>
+      <c r="T25">
+        <v>0.03864177954227454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>29.08290733333333</v>
+      </c>
+      <c r="H26">
+        <v>87.248722</v>
+      </c>
+      <c r="I26">
+        <v>0.08618985566240746</v>
+      </c>
+      <c r="J26">
+        <v>0.08618985566240744</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.04273033333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.128191</v>
+      </c>
+      <c r="O26">
+        <v>0.001766441638079285</v>
+      </c>
+      <c r="P26">
+        <v>0.001766441638079284</v>
+      </c>
+      <c r="Q26">
+        <v>1.242722324655778</v>
+      </c>
+      <c r="R26">
+        <v>11.184500921902</v>
+      </c>
+      <c r="S26">
+        <v>0.0001522493498221201</v>
+      </c>
+      <c r="T26">
+        <v>0.0001522493498221201</v>
       </c>
     </row>
   </sheetData>
